--- a/angular/src/assets/sampleFiles/business/SalesDealerContractFormatFile.xlsx
+++ b/angular/src/assets/sampleFiles/business/SalesDealerContractFormatFile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="SalesDealerContractPlan" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="19">
   <si>
     <t>Dealer</t>
   </si>
@@ -54,9 +54,6 @@
     <t>DC</t>
   </si>
   <si>
-    <t>Import Package</t>
-  </si>
-  <si>
     <t>DC0</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
   </si>
   <si>
     <t>11-01-2022</t>
-  </si>
-  <si>
-    <t>10-01-2022</t>
   </si>
   <si>
     <t>Cột Month và Import package đặt định dạng là Text, Tháng-Ngày-Năm</t>
@@ -432,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,10 +438,9 @@
     <col min="3" max="3" width="10.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -462,9 +455,6 @@
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -474,10 +464,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,12 +476,11 @@
     <col min="3" max="3" width="10.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="15" style="3" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="6" max="6" width="10.28515625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -507,11 +496,8 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -522,16 +508,13 @@
         <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -542,16 +525,13 @@
         <v>10</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -562,16 +542,13 @@
         <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -582,16 +559,13 @@
         <v>10</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -602,16 +576,13 @@
         <v>10</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -622,16 +593,13 @@
         <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -642,16 +610,13 @@
         <v>10</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -662,16 +627,13 @@
         <v>10</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -682,20 +644,16 @@
         <v>10</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
